--- a/Load/ontology/script/aggregated_detection_template.xlsx
+++ b/Load/ontology/script/aggregated_detection_template.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87021C3-B8F7-6F49-B069-1E6847B3D55C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64EF3E0-0260-6044-B43A-F3B4025800C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>variable</t>
   </si>
@@ -52,57 +60,6 @@
     <t>website parent</t>
   </si>
   <si>
-    <t>Bacteria</t>
-  </si>
-  <si>
-    <t>Vibrio</t>
-  </si>
-  <si>
-    <t>Vibrio cholerae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adenovirus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ancylostoma </t>
-  </si>
-  <si>
-    <t>Virus</t>
-  </si>
-  <si>
-    <t>Eukaryota</t>
-  </si>
-  <si>
-    <t>Adenovirus</t>
-  </si>
-  <si>
-    <t>Ancylostoma</t>
-  </si>
-  <si>
-    <t>TAC</t>
-  </si>
-  <si>
-    <t>Campylobacter</t>
-  </si>
-  <si>
-    <t>ELISA</t>
-  </si>
-  <si>
-    <t>Norovirus</t>
-  </si>
-  <si>
-    <t>Chikungunya</t>
-  </si>
-  <si>
-    <t>SD Bioline IgM ELISA</t>
-  </si>
-  <si>
-    <t>Escherichia coli</t>
-  </si>
-  <si>
-    <t>Escherichia</t>
-  </si>
-  <si>
     <t>if ETEC, STEC, etc. enter it here</t>
   </si>
   <si>
@@ -112,15 +69,6 @@
     <t>enterotoxic or virulence factor tested negative</t>
   </si>
   <si>
-    <t>ETEC</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
     <t>"and" or "or"? (if you have 2 -pos values)</t>
   </si>
   <si>
@@ -133,21 +81,6 @@
     <t>website grandparent</t>
   </si>
   <si>
-    <t>STEC</t>
-  </si>
-  <si>
-    <t>stx1</t>
-  </si>
-  <si>
-    <t>PCR</t>
-  </si>
-  <si>
-    <t>RT-PCR</t>
-  </si>
-  <si>
-    <t>Norovirus GII</t>
-  </si>
-  <si>
     <t>E.g.: bacteriology, TAC, ELISA</t>
   </si>
   <si>
@@ -157,43 +90,13 @@
     <t>value specification</t>
   </si>
   <si>
-    <t>Ancylostomatoidea</t>
-  </si>
-  <si>
-    <t>Hookworm</t>
-  </si>
-  <si>
-    <t>microscopy</t>
-  </si>
-  <si>
     <t>sample type</t>
   </si>
   <si>
-    <t>stool</t>
-  </si>
-  <si>
-    <t>urine</t>
-  </si>
-  <si>
-    <t>Schistosoma</t>
-  </si>
-  <si>
     <t>Enter genus (and species if applicable). Then, enter any additional specifics from data provider (serotype, gene) UNLESS species is E. coli.</t>
   </si>
   <si>
-    <t>Schistosoma mansoni</t>
-  </si>
-  <si>
     <t>E.g. count eggs per gram</t>
-  </si>
-  <si>
-    <t>count eggs per gram</t>
-  </si>
-  <si>
-    <t>stx2</t>
-  </si>
-  <si>
-    <t>or</t>
   </si>
 </sst>
 </file>
@@ -686,7 +589,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1042,13 +947,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1069,21 +974,26 @@
     <col min="14" max="15" width="30.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="18.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="19.6640625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="10.83203125" style="1"/>
+    <col min="18" max="18" width="10.83203125" style="1"/>
+    <col min="19" max="19" width="17.1640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="4"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="37" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1095,16 +1005,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
@@ -1116,19 +1026,18 @@
         <v>9</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -1137,31 +1046,16 @@
         <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="3" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N3" s="2" t="str">
         <f>TRIM(IF($D3&lt;&gt;"","Mean ","Any ")&amp;IF($H3="",$G3,"")
 &amp;IF($H3&lt;&gt;"",$H3,"")
@@ -1170,385 +1064,52 @@
 &amp;IF($K3&lt;&gt;""," "&amp;$K3,"")
 &amp;IF($J3&lt;&gt;""," "&amp;$J3&amp;"-pos","")
 &amp;IF($L3&lt;&gt;""," "&amp;$L3&amp;"-neg","")&amp;IF($D3="",""," "&amp;$D3)&amp;", by "&amp;$C3)</f>
-        <v>Any Vibrio cholerae, by ELISA</v>
+        <v>Any , by</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>TRIM(IF($I3="",IF($H3="",$G3,$H3),$I3)&amp;" aggregate data")</f>
-        <v>Vibrio cholerae aggregate data</v>
+        <v>aggregate data</v>
       </c>
       <c r="P3" s="2" t="str">
         <f>TRIM(IF($E3="Eukaryota","Eukaryote",$E3)&amp;" in "&amp;$B3&amp;" detection aggregate data")</f>
-        <v>Bacteria in stool detection aggregate data</v>
+        <v>in detection aggregate data</v>
       </c>
       <c r="Q3" s="2" t="str">
         <f>TRIM("Aggregate organism in "&amp;$B3&amp;" detection data")</f>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:N13" si="0">TRIM(IF($D4&lt;&gt;"","Mean ","Any ")&amp;IF($H4="",$G4,"")
-&amp;IF($H4&lt;&gt;"",$H4,"")
-&amp;IF($I4&lt;&gt;""," "&amp;$I4,"")
-&amp;IF(OR($I4="LT",$I4="ST",$I4&lt;&gt;""),"-pos","")
-&amp;IF($K4&lt;&gt;""," "&amp;$K4,"")
-&amp;IF($J4&lt;&gt;""," "&amp;$J4&amp;"-pos","")
-&amp;IF($L4&lt;&gt;""," "&amp;$L4&amp;"-neg","")&amp;IF($D4="",""," "&amp;$D4)&amp;", by "&amp;$C4)</f>
-        <v>Any Adenovirus, by ELISA</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O13" si="1">TRIM(IF($I4="",IF($H4="",$G4,$H4),$I4)&amp;" aggregate data")</f>
-        <v>Adenovirus aggregate data</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f t="shared" ref="P4:P13" si="2">TRIM(IF($E4="Eukaryota","Eukaryote",$E4)&amp;" in "&amp;$B4&amp;" detection aggregate data")</f>
-        <v>Virus in stool detection aggregate data</v>
-      </c>
-      <c r="Q4" s="2" t="str">
-        <f t="shared" ref="Q4:Q13" si="3">TRIM("Aggregate organism in "&amp;$B4&amp;" detection data")</f>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Mean Schistosoma mansoni count eggs per gram, by microscopy</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Schistosoma mansoni aggregate data</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Eukaryote in urine detection aggregate data</v>
-      </c>
-      <c r="Q5" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Aggregate organism in urine detection data</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Any Ancylostoma, by TAC</v>
-      </c>
-      <c r="O6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Ancylostoma aggregate data</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Eukaryote in stool detection aggregate data</v>
-      </c>
-      <c r="Q6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Any Campylobacter, by ELISA</v>
-      </c>
-      <c r="O7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Campylobacter aggregate data</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria in stool detection aggregate data</v>
-      </c>
-      <c r="Q7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Any Norovirus GII, by RT-PCR</v>
-      </c>
-      <c r="O8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Norovirus GII aggregate data</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Virus in stool detection aggregate data</v>
-      </c>
-      <c r="Q8" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Any Chikungunya, by SD Bioline IgM ELISA</v>
-      </c>
-      <c r="O9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Chikungunya aggregate data</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Virus in stool detection aggregate data</v>
-      </c>
-      <c r="Q9" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Any ETEC LT-pos ST-neg, by PCR</v>
-      </c>
-      <c r="O10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>LT aggregate data</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria in stool detection aggregate data</v>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Any STEC, by PCR</v>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>STEC aggregate data</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria in stool detection aggregate data</v>
-      </c>
-      <c r="Q11" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Any STEC stx1-pos or stx2-pos, by PCR</v>
-      </c>
-      <c r="O12" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>stx1 aggregate data</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Bacteria in stool detection aggregate data</v>
-      </c>
-      <c r="Q12" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Any Hookworm, by microscopy</v>
-      </c>
-      <c r="O13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Hookworm aggregate data</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Eukaryote in stool detection aggregate data</v>
-      </c>
-      <c r="Q13" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>Aggregate organism in stool detection data</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Aggregate organism in detection data</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O14" s="3"/>
     </row>
   </sheetData>

--- a/Load/ontology/script/aggregated_detection_template.xlsx
+++ b/Load/ontology/script/aggregated_detection_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jjudkins/Documents/GitHub/ApiCommonData/Load/ontology/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64EF3E0-0260-6044-B43A-F3B4025800C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E794CC-55E5-5A45-9F95-09089E7A7C09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3200" yWindow="3280" windowWidth="22660" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_detection_template" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>variable</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>E.g. count eggs per gram</t>
+  </si>
+  <si>
+    <t>qPCR</t>
+  </si>
+  <si>
+    <t>stool</t>
+  </si>
+  <si>
+    <t>burden</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>Enterovirus</t>
+  </si>
+  <si>
+    <t>Poliovirus</t>
   </si>
 </sst>
 </file>
@@ -950,10 +968,10 @@
   <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="52" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1056,6 +1074,24 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="N3" s="2" t="str">
         <f>TRIM(IF($D3&lt;&gt;"","Mean ","Any ")&amp;IF($H3="",$G3,"")
 &amp;IF($H3&lt;&gt;"",$H3,"")
@@ -1064,19 +1100,19 @@
 &amp;IF($K3&lt;&gt;""," "&amp;$K3,"")
 &amp;IF($J3&lt;&gt;""," "&amp;$J3&amp;"-pos","")
 &amp;IF($L3&lt;&gt;""," "&amp;$L3&amp;"-neg","")&amp;IF($D3="",""," "&amp;$D3)&amp;", by "&amp;$C3)</f>
-        <v>Any , by</v>
+        <v>Mean Poliovirus burden, by qPCR</v>
       </c>
       <c r="O3" s="2" t="str">
-        <f>TRIM(IF($I3="",IF($H3="",$G3,$H3),$I3)&amp;" aggregate data")</f>
-        <v>aggregate data</v>
+        <f>TRIM(F3&amp;" in "&amp;B3&amp;" aggregate data")</f>
+        <v>Enterovirus in stool aggregate data</v>
       </c>
       <c r="P3" s="2" t="str">
         <f>TRIM(IF($E3="Eukaryota","Eukaryote",$E3)&amp;" in "&amp;$B3&amp;" detection aggregate data")</f>
-        <v>in detection aggregate data</v>
+        <v>Virus in stool detection aggregate data</v>
       </c>
       <c r="Q3" s="2" t="str">
         <f>TRIM("Aggregate organism in "&amp;$B3&amp;" detection data")</f>
-        <v>Aggregate organism in detection data</v>
+        <v>Aggregate organism in stool detection data</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="52" customHeight="1" x14ac:dyDescent="0.2">
